--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H2">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I2">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J2">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>3.392418641858444</v>
+        <v>0.002459559264666667</v>
       </c>
       <c r="R2">
-        <v>30.531767776726</v>
+        <v>0.022136033382</v>
       </c>
       <c r="S2">
-        <v>0.09104915461694997</v>
+        <v>7.812614998250853E-05</v>
       </c>
       <c r="T2">
-        <v>0.1010761342392612</v>
+        <v>8.070299200692158E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H3">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I3">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J3">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
-        <v>21.63557277522034</v>
+        <v>0.09396864952633334</v>
       </c>
       <c r="R3">
-        <v>194.720154976983</v>
+        <v>0.845717845737</v>
       </c>
       <c r="S3">
-        <v>0.5806773334313932</v>
+        <v>0.002984847290330711</v>
       </c>
       <c r="T3">
-        <v>0.6446256459000813</v>
+        <v>0.003083296784333701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H4">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I4">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J4">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,60 +682,60 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>10.29758519520383</v>
+        <v>0.01078202142766667</v>
       </c>
       <c r="R4">
-        <v>61.785511171223</v>
+        <v>0.064692128566</v>
       </c>
       <c r="S4">
-        <v>0.2763769822069181</v>
+        <v>0.0003424832388768106</v>
       </c>
       <c r="T4">
-        <v>0.2045423857161795</v>
+        <v>0.0002358529301287553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.755309666666667</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H5">
-        <v>5.265929</v>
+        <v>0.626267</v>
       </c>
       <c r="I5">
-        <v>0.03462468218965708</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J5">
-        <v>0.03470286026530938</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07058066666666667</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N5">
-        <v>0.211742</v>
+        <v>0.365222</v>
       </c>
       <c r="O5">
-        <v>0.09603293044844197</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P5">
-        <v>0.1063685922746608</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q5">
-        <v>0.1238909264797778</v>
+        <v>0.02541405403044444</v>
       </c>
       <c r="R5">
-        <v>1.115018338318</v>
+        <v>0.228726486274</v>
       </c>
       <c r="S5">
-        <v>0.003325109696518746</v>
+        <v>0.0008072593433178216</v>
       </c>
       <c r="T5">
-        <v>0.003691294394325222</v>
+        <v>0.0008338852528363014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.755309666666667</v>
+        <v>48.06441766666666</v>
       </c>
       <c r="H6">
-        <v>5.265929</v>
+        <v>144.193253</v>
       </c>
       <c r="I6">
-        <v>0.03462468218965708</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J6">
-        <v>0.03470286026530938</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4501370000000001</v>
+        <v>0.011782</v>
       </c>
       <c r="N6">
-        <v>1.350411</v>
+        <v>0.035346</v>
       </c>
       <c r="O6">
-        <v>0.612461985056394</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P6">
-        <v>0.678378956759722</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q6">
-        <v>0.7901298274243334</v>
+        <v>0.5662949689486667</v>
       </c>
       <c r="R6">
-        <v>7.111168446819002</v>
+        <v>5.096654720538</v>
       </c>
       <c r="S6">
-        <v>0.02120630158582415</v>
+        <v>0.01798795675062521</v>
       </c>
       <c r="T6">
-        <v>0.02354169014335899</v>
+        <v>0.01858125519037571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>48.06441766666666</v>
+      </c>
+      <c r="H7">
+        <v>144.193253</v>
+      </c>
+      <c r="I7">
+        <v>0.9699460888896084</v>
+      </c>
+      <c r="J7">
+        <v>0.9747862312749473</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>1.755309666666667</v>
-      </c>
-      <c r="H7">
-        <v>5.265929</v>
-      </c>
-      <c r="I7">
-        <v>0.03462468218965708</v>
-      </c>
-      <c r="J7">
-        <v>0.03470286026530938</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.5</v>
-      </c>
       <c r="M7">
-        <v>0.2142455</v>
+        <v>0.450137</v>
       </c>
       <c r="N7">
-        <v>0.428491</v>
+        <v>1.350411</v>
       </c>
       <c r="O7">
-        <v>0.291505084495164</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P7">
-        <v>0.2152524509656171</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q7">
-        <v>0.3760671971898333</v>
+        <v>21.63557277522033</v>
       </c>
       <c r="R7">
-        <v>2.256403183139</v>
+        <v>194.720154976983</v>
       </c>
       <c r="S7">
-        <v>0.01009327090731419</v>
+        <v>0.6872385747628738</v>
       </c>
       <c r="T7">
-        <v>0.00746987572762517</v>
+        <v>0.7099058281811363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>48.06441766666666</v>
+      </c>
+      <c r="H8">
+        <v>144.193253</v>
+      </c>
+      <c r="I8">
+        <v>0.9699460888896084</v>
+      </c>
+      <c r="J8">
+        <v>0.9747862312749473</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.5</v>
       </c>
-      <c r="G8">
-        <v>0.342617</v>
-      </c>
-      <c r="H8">
-        <v>0.685234</v>
-      </c>
-      <c r="I8">
-        <v>0.006758354359377276</v>
-      </c>
-      <c r="J8">
-        <v>0.004515742569077367</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.07058066666666667</v>
+        <v>0.051649</v>
       </c>
       <c r="N8">
-        <v>0.211742</v>
+        <v>0.103298</v>
       </c>
       <c r="O8">
-        <v>0.09603293044844197</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P8">
-        <v>0.1063685922746608</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q8">
-        <v>0.02418213627133333</v>
+        <v>2.482479108065667</v>
       </c>
       <c r="R8">
-        <v>0.145092817628</v>
+        <v>14.894874648394</v>
       </c>
       <c r="S8">
-        <v>0.0006490245741400026</v>
+        <v>0.07885418249983375</v>
       </c>
       <c r="T8">
-        <v>0.00048033318014752</v>
+        <v>0.05430335819202822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.342617</v>
+        <v>48.06441766666666</v>
       </c>
       <c r="H9">
-        <v>0.685234</v>
+        <v>144.193253</v>
       </c>
       <c r="I9">
-        <v>0.006758354359377276</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J9">
-        <v>0.004515742569077367</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4501370000000001</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N9">
-        <v>1.350411</v>
+        <v>0.365222</v>
       </c>
       <c r="O9">
-        <v>0.612461985056394</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P9">
-        <v>0.678378956759722</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q9">
-        <v>0.154224588529</v>
+        <v>5.851394249685111</v>
       </c>
       <c r="R9">
-        <v>0.9253475311740001</v>
+        <v>52.662548247166</v>
       </c>
       <c r="S9">
-        <v>0.004139235126658741</v>
+        <v>0.1858653748762756</v>
       </c>
       <c r="T9">
-        <v>0.003063384733006172</v>
+        <v>0.1919957897114071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,75 +1021,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.342617</v>
+        <v>0.245141</v>
       </c>
       <c r="H10">
-        <v>0.685234</v>
+        <v>0.735423</v>
       </c>
       <c r="I10">
-        <v>0.006758354359377276</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J10">
-        <v>0.004515742569077367</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2142455</v>
+        <v>0.011782</v>
       </c>
       <c r="N10">
-        <v>0.428491</v>
+        <v>0.035346</v>
       </c>
       <c r="O10">
-        <v>0.291505084495164</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P10">
-        <v>0.2152524509656171</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q10">
-        <v>0.0734041504735</v>
+        <v>0.002888251262</v>
       </c>
       <c r="R10">
-        <v>0.293616601894</v>
+        <v>0.025994261358</v>
       </c>
       <c r="S10">
-        <v>0.001970094658578533</v>
+        <v>9.174324624894236E-05</v>
       </c>
       <c r="T10">
-        <v>0.0009720246559236759</v>
+        <v>9.476922221785005E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,60 +1098,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5329849999999999</v>
+        <v>0.245141</v>
       </c>
       <c r="H11">
-        <v>1.598955</v>
+        <v>0.735423</v>
       </c>
       <c r="I11">
-        <v>0.01051349319570452</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J11">
-        <v>0.0105372313100913</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07058066666666667</v>
+        <v>0.450137</v>
       </c>
       <c r="N11">
-        <v>0.211742</v>
+        <v>1.350411</v>
       </c>
       <c r="O11">
-        <v>0.09603293044844197</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P11">
-        <v>0.1063685922746608</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q11">
-        <v>0.03761843662333333</v>
+        <v>0.110347034317</v>
       </c>
       <c r="R11">
-        <v>0.33856592961</v>
+        <v>0.993123308853</v>
       </c>
       <c r="S11">
-        <v>0.00100964156083326</v>
+        <v>0.003505095029431349</v>
       </c>
       <c r="T11">
-        <v>0.001120830460926892</v>
+        <v>0.003620703902688539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,60 +1160,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5329849999999999</v>
+        <v>0.245141</v>
       </c>
       <c r="H12">
-        <v>1.598955</v>
+        <v>0.735423</v>
       </c>
       <c r="I12">
-        <v>0.01051349319570452</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J12">
-        <v>0.0105372313100913</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4501370000000001</v>
+        <v>0.051649</v>
       </c>
       <c r="N12">
-        <v>1.350411</v>
+        <v>0.103298</v>
       </c>
       <c r="O12">
-        <v>0.612461985056394</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P12">
-        <v>0.678378956759722</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q12">
-        <v>0.239916268945</v>
+        <v>0.012661287509</v>
       </c>
       <c r="R12">
-        <v>2.159246420505</v>
+        <v>0.07596772505400001</v>
       </c>
       <c r="S12">
-        <v>0.006439114912518085</v>
+        <v>0.0004021767887889682</v>
       </c>
       <c r="T12">
-        <v>0.007148235983275615</v>
+        <v>0.0002769612153188331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,46 +1222,542 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5329849999999999</v>
+        <v>0.245141</v>
       </c>
       <c r="H13">
-        <v>1.598955</v>
+        <v>0.735423</v>
       </c>
       <c r="I13">
-        <v>0.01051349319570452</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J13">
-        <v>0.0105372313100913</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.365222</v>
+      </c>
+      <c r="O13">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P13">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q13">
+        <v>0.02984362876733334</v>
+      </c>
+      <c r="R13">
+        <v>0.268592658906</v>
+      </c>
+      <c r="S13">
+        <v>0.0009479616330428115</v>
+      </c>
+      <c r="T13">
+        <v>0.0009792283391854134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.5</v>
       </c>
-      <c r="M13">
-        <v>0.2142455</v>
-      </c>
-      <c r="N13">
-        <v>0.428491</v>
-      </c>
-      <c r="O13">
-        <v>0.291505084495164</v>
-      </c>
-      <c r="P13">
-        <v>0.2152524509656171</v>
-      </c>
-      <c r="Q13">
-        <v>0.1141896378175</v>
-      </c>
-      <c r="R13">
-        <v>0.685137826905</v>
-      </c>
-      <c r="S13">
-        <v>0.00306473672235318</v>
-      </c>
-      <c r="T13">
-        <v>0.002268164865888793</v>
+      <c r="G14">
+        <v>0.7381525</v>
+      </c>
+      <c r="H14">
+        <v>1.476305</v>
+      </c>
+      <c r="I14">
+        <v>0.01489601175123818</v>
+      </c>
+      <c r="J14">
+        <v>0.009980229707158081</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.011782</v>
+      </c>
+      <c r="N14">
+        <v>0.035346</v>
+      </c>
+      <c r="O14">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P14">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q14">
+        <v>0.008696912755000001</v>
+      </c>
+      <c r="R14">
+        <v>0.05218147653</v>
+      </c>
+      <c r="S14">
+        <v>0.0002762512455149176</v>
+      </c>
+      <c r="T14">
+        <v>0.0001902419105825125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.7381525</v>
+      </c>
+      <c r="H15">
+        <v>1.476305</v>
+      </c>
+      <c r="I15">
+        <v>0.01489601175123818</v>
+      </c>
+      <c r="J15">
+        <v>0.009980229707158081</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.450137</v>
+      </c>
+      <c r="N15">
+        <v>1.350411</v>
+      </c>
+      <c r="O15">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P15">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q15">
+        <v>0.3322697518925</v>
+      </c>
+      <c r="R15">
+        <v>1.993618511355</v>
+      </c>
+      <c r="S15">
+        <v>0.0105543122476955</v>
+      </c>
+      <c r="T15">
+        <v>0.007268284069248042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.7381525</v>
+      </c>
+      <c r="H16">
+        <v>1.476305</v>
+      </c>
+      <c r="I16">
+        <v>0.01489601175123818</v>
+      </c>
+      <c r="J16">
+        <v>0.009980229707158081</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.051649</v>
+      </c>
+      <c r="N16">
+        <v>0.103298</v>
+      </c>
+      <c r="O16">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P16">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q16">
+        <v>0.0381248384725</v>
+      </c>
+      <c r="R16">
+        <v>0.15249935389</v>
+      </c>
+      <c r="S16">
+        <v>0.001211008366966557</v>
+      </c>
+      <c r="T16">
+        <v>0.0005559782968186605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.7381525</v>
+      </c>
+      <c r="H17">
+        <v>1.476305</v>
+      </c>
+      <c r="I17">
+        <v>0.01489601175123818</v>
+      </c>
+      <c r="J17">
+        <v>0.009980229707158081</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.365222</v>
+      </c>
+      <c r="O17">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P17">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q17">
+        <v>0.08986317745166666</v>
+      </c>
+      <c r="R17">
+        <v>0.53917906471</v>
+      </c>
+      <c r="S17">
+        <v>0.002854439891061201</v>
+      </c>
+      <c r="T17">
+        <v>0.001965725430508866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.8917</v>
+      </c>
+      <c r="I18">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J18">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.011782</v>
+      </c>
+      <c r="N18">
+        <v>0.035346</v>
+      </c>
+      <c r="O18">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P18">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q18">
+        <v>0.003502003133333334</v>
+      </c>
+      <c r="R18">
+        <v>0.03151802820000001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001112386377366249</v>
+      </c>
+      <c r="T18">
+        <v>0.0001149076320045156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.8917</v>
+      </c>
+      <c r="I19">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J19">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.450137</v>
+      </c>
+      <c r="N19">
+        <v>1.350411</v>
+      </c>
+      <c r="O19">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P19">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q19">
+        <v>0.1337957209666667</v>
+      </c>
+      <c r="R19">
+        <v>1.2041614887</v>
+      </c>
+      <c r="S19">
+        <v>0.004249925876324149</v>
+      </c>
+      <c r="T19">
+        <v>0.004390101574233292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.8917</v>
+      </c>
+      <c r="I20">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J20">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.051649</v>
+      </c>
+      <c r="N20">
+        <v>0.103298</v>
+      </c>
+      <c r="O20">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P20">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q20">
+        <v>0.01535180443333333</v>
+      </c>
+      <c r="R20">
+        <v>0.0921108266</v>
+      </c>
+      <c r="S20">
+        <v>0.0004876391444965998</v>
+      </c>
+      <c r="T20">
+        <v>0.0003358153276411038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.8917</v>
+      </c>
+      <c r="I21">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J21">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.365222</v>
+      </c>
+      <c r="O21">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P21">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q21">
+        <v>0.03618538415555556</v>
+      </c>
+      <c r="R21">
+        <v>0.3256684574</v>
+      </c>
+      <c r="S21">
+        <v>0.001149402980576179</v>
+      </c>
+      <c r="T21">
+        <v>0.001187313845299417</v>
       </c>
     </row>
   </sheetData>
